--- a/variant_28/Задание 18/18.xlsx
+++ b/variant_28/Задание 18/18.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\Вебинариум\Пробники\201207\Файлы к заданиям\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125BBAA9-A52C-47FA-8DB8-79783DB7A77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1575" windowWidth="25380" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="1575" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,12 +38,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -126,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -161,7 +162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -338,23 +339,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>17</v>
       </c>
@@ -398,7 +399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>67</v>
       </c>
@@ -442,7 +443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>40</v>
       </c>
@@ -486,7 +487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>76</v>
       </c>
@@ -530,7 +531,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>8</v>
       </c>
@@ -574,7 +575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>29</v>
       </c>
@@ -618,7 +619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>38</v>
       </c>
@@ -662,7 +663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>87</v>
       </c>
@@ -706,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>13</v>
       </c>
@@ -750,7 +751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>93</v>
       </c>
@@ -794,7 +795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -838,7 +839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>46</v>
       </c>
@@ -882,7 +883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>53</v>
       </c>
@@ -926,48 +927,1672 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
         <v>71</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>56</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>21</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>27</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>64</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>18</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>77</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>76</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>18</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>27</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>41</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <f>IF(A1&gt;=50,50,A1)</f>
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:N16" si="0">IF(B1&gt;=50,50,B1)</f>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <f t="shared" ref="A17:N17" si="1">IF(A2&gt;=50,50,A2)</f>
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <f t="shared" ref="A18:N18" si="2">IF(A3&gt;=50,50,A3)</f>
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <f t="shared" ref="A19:N19" si="3">IF(A4&gt;=50,50,A4)</f>
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <f t="shared" ref="A20:N20" si="4">IF(A5&gt;=50,50,A5)</f>
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <f t="shared" ref="A21:N21" si="5">IF(A6&gt;=50,50,A6)</f>
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <f t="shared" ref="A22:N22" si="6">IF(A7&gt;=50,50,A7)</f>
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <f t="shared" ref="A23:N23" si="7">IF(A8&gt;=50,50,A8)</f>
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <f t="shared" ref="A24:N24" si="8">IF(A9&gt;=50,50,A9)</f>
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <f t="shared" ref="A25:N25" si="9">IF(A10&gt;=50,50,A10)</f>
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <f t="shared" ref="A26:N26" si="10">IF(A11&gt;=50,50,A11)</f>
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <f t="shared" ref="A27:N27" si="11">IF(A12&gt;=50,50,A12)</f>
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <f t="shared" ref="A28:N28" si="12">IF(A13&gt;=50,50,A13)</f>
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <f t="shared" ref="A29:N29" si="13">IF(A14&gt;=50,50,A14)</f>
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="13"/>
+        <v>41</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32">
+        <f>A16+A33</f>
+        <v>499</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B43" si="14">B16+MAX(A32,B33)</f>
+        <v>549</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C44" si="15">C16+MAX(B32,C33)</f>
+        <v>617</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D44" si="16">D16+MAX(C32,D33)</f>
+        <v>679</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E44" si="17">E16+MAX(D32,E33)</f>
+        <v>739</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F44" si="18">F16+MAX(E32,F33)</f>
+        <v>782</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G44" si="19">G16+MAX(F32,G33)</f>
+        <v>946</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H44" si="20">H16+MAX(G32,H33)</f>
+        <v>957</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I44" si="21">I16+MAX(H32,I33)</f>
+        <v>1084</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J44" si="22">J16+MAX(I32,J33)</f>
+        <v>1134</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:K44" si="23">K16+MAX(J32,K33)</f>
+        <v>1184</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L44" si="24">L16+MAX(K32,L33)</f>
+        <v>1232</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M44" si="25">M16+MAX(L32,M33)</f>
+        <v>1282</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N44" si="26">N16+MAX(M32,N33)</f>
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <f t="shared" ref="A33:A43" si="27">A17+A34</f>
+        <v>482</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="14"/>
+        <v>541</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="15"/>
+        <v>591</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="16"/>
+        <v>675</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="17"/>
+        <v>689</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="18"/>
+        <v>747</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="19"/>
+        <v>896</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="20"/>
+        <v>951</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="21"/>
+        <v>1034</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="22"/>
+        <v>1084</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="23"/>
+        <v>1134</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="24"/>
+        <v>1143</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="25"/>
+        <v>1199</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="26"/>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
+        <f t="shared" si="27"/>
+        <v>432</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="14"/>
+        <v>491</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="15"/>
+        <v>541</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="16"/>
+        <v>646</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="17"/>
+        <v>658</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="18"/>
+        <v>731</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>846</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="20"/>
+        <v>901</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="21"/>
+        <v>984</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="22"/>
+        <v>1010</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="23"/>
+        <v>1069</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="24"/>
+        <v>1119</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="25"/>
+        <v>1155</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="26"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <f t="shared" si="27"/>
+        <v>392</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="14"/>
+        <v>441</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="15"/>
+        <v>490</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="16"/>
+        <v>596</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="17"/>
+        <v>632</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="18"/>
+        <v>726</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="19"/>
+        <v>803</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="20"/>
+        <v>867</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="21"/>
+        <v>934</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="22"/>
+        <v>962</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="23"/>
+        <v>1019</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="24"/>
+        <v>1032</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="25"/>
+        <v>1094</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="26"/>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <f t="shared" si="27"/>
+        <v>342</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="14"/>
+        <v>429</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="15"/>
+        <v>488</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="16"/>
+        <v>586</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="17"/>
+        <v>624</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="18"/>
+        <v>703</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="19"/>
+        <v>753</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="20"/>
+        <v>817</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="21"/>
+        <v>884</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="22"/>
+        <v>915</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="23"/>
+        <v>969</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="24"/>
+        <v>1019</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="25"/>
+        <v>1044</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="26"/>
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <f t="shared" si="27"/>
+        <v>334</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="14"/>
+        <v>381</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="15"/>
+        <v>447</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="16"/>
+        <v>561</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="17"/>
+        <v>622</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="18"/>
+        <v>684</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="19"/>
+        <v>696</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="20"/>
+        <v>784</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="21"/>
+        <v>834</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="22"/>
+        <v>884</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="23"/>
+        <v>919</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="24"/>
+        <v>938</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="25"/>
+        <v>988</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="26"/>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38">
+        <f t="shared" si="27"/>
+        <v>305</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="14"/>
+        <v>351</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="15"/>
+        <v>397</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="16"/>
+        <v>522</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="17"/>
+        <v>572</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="18"/>
+        <v>634</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="19"/>
+        <v>657</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="20"/>
+        <v>734</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="21"/>
+        <v>759</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="22"/>
+        <v>809</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="23"/>
+        <v>859</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="24"/>
+        <v>880</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="25"/>
+        <v>931</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="26"/>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <f t="shared" si="27"/>
+        <v>267</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="14"/>
+        <v>323</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="15"/>
+        <v>392</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="16"/>
+        <v>472</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="17"/>
+        <v>475</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="18"/>
+        <v>584</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="19"/>
+        <v>634</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="20"/>
+        <v>684</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="21"/>
+        <v>698</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="22"/>
+        <v>748</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="23"/>
+        <v>784</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="24"/>
+        <v>844</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="25"/>
+        <v>881</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="26"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40">
+        <f t="shared" si="27"/>
+        <v>217</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="14"/>
+        <v>273</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="15"/>
+        <v>342</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="16"/>
+        <v>422</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>428</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="18"/>
+        <v>534</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="19"/>
+        <v>548</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="20"/>
+        <v>570</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="21"/>
+        <v>676</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="22"/>
+        <v>690</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="23"/>
+        <v>744</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="24"/>
+        <v>794</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="25"/>
+        <v>826</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="26"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41">
+        <f t="shared" si="27"/>
+        <v>204</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="14"/>
+        <v>223</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="15"/>
+        <v>292</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="16"/>
+        <v>372</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="17"/>
+        <v>424</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="18"/>
+        <v>485</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="19"/>
+        <v>497</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="20"/>
+        <v>542</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="21"/>
+        <v>626</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="22"/>
+        <v>659</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="23"/>
+        <v>694</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="24"/>
+        <v>720</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="25"/>
+        <v>779</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="26"/>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42">
+        <f t="shared" si="27"/>
+        <v>154</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="14"/>
+        <v>207</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="15"/>
+        <v>255</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="16"/>
+        <v>347</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="17"/>
+        <v>385</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="18"/>
+        <v>435</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="19"/>
+        <v>457</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="20"/>
+        <v>526</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="21"/>
+        <v>576</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="22"/>
+        <v>626</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="23"/>
+        <v>664</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="24"/>
+        <v>702</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="25"/>
+        <v>739</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="26"/>
+        <v>789</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <f t="shared" si="27"/>
+        <v>146</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="14"/>
+        <v>157</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="16"/>
+        <v>297</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="17"/>
+        <v>347</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="18"/>
+        <v>358</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="19"/>
+        <v>408</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="20"/>
+        <v>476</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="21"/>
+        <v>499</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="22"/>
+        <v>519</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="23"/>
+        <v>540</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="24"/>
+        <v>606</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="25"/>
+        <v>656</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="26"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
+        <f>A28+A45</f>
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <f>B28+MAX(A44,B45)</f>
+        <v>150</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="16"/>
+        <v>231</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="17"/>
+        <v>281</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="18"/>
+        <v>331</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="19"/>
+        <v>379</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="20"/>
+        <v>429</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="21"/>
+        <v>443</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="22"/>
+        <v>461</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="23"/>
+        <v>511</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="24"/>
+        <v>556</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="25"/>
+        <v>584</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="26"/>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <f>A29</f>
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <f>B29+A45</f>
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:N45" si="28">C29+B45</f>
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="28"/>
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="28"/>
+        <v>131</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="28"/>
+        <v>158</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="28"/>
+        <v>208</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="28"/>
+        <v>226</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="28"/>
+        <v>276</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="28"/>
+        <v>326</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="28"/>
+        <v>344</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="28"/>
+        <v>371</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="28"/>
+        <v>412</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="28"/>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
